--- a/spec/ASW/Eng/Fuel/InjVlv/InjCrv/InjCrv_MI1/InjCrv_MI1.xlsx
+++ b/spec/ASW/Eng/Fuel/InjVlv/InjCrv/InjCrv_MI1/InjCrv_MI1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\cm\Unitfolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\spec\ASW\Eng\Fuel\InjVlv\InjCrv\InjCrv_MI1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1E728A-8F39-4BDA-97A9-68E28248061F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A3810E-4EB4-49CF-9A6D-542FAC84C4EA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IN" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="123">
   <si>
     <t>Name</t>
   </si>
@@ -70,6 +70,429 @@
   </si>
   <si>
     <t>InitialValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InjCtl_qSetUnBal</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>mg/hub</t>
+  </si>
+  <si>
+    <t>Current injection quantity</t>
+  </si>
+  <si>
+    <t>InjCrv_qMI1BalPoI2</t>
+  </si>
+  <si>
+    <t>Actual PoI2 quantity contained in FMTC (used for MI1 balance)</t>
+  </si>
+  <si>
+    <t>InjCrv_qPiI1Set_mp</t>
+  </si>
+  <si>
+    <t>Set PiI1 quantity</t>
+  </si>
+  <si>
+    <t>Epm_nEng</t>
+  </si>
+  <si>
+    <t>rpm</t>
+  </si>
+  <si>
+    <t>Engine speed</t>
+  </si>
+  <si>
+    <t>InjCrv_phiMI1Cor1</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>Angle_CA</t>
+  </si>
+  <si>
+    <t>Start of energizing correction for MI1</t>
+  </si>
+  <si>
+    <t>InjCrv_phiMI1AirMsCor</t>
+  </si>
+  <si>
+    <t>The dynamic correction value is calculated as the compensation based on the air quality deviation</t>
+  </si>
+  <si>
+    <t>CoEng_st</t>
+  </si>
+  <si>
+    <t>Engine coordinator state</t>
+  </si>
+  <si>
+    <t>InjCrv_qPiI2Set_mp</t>
+  </si>
+  <si>
+    <t>Set PiI2 quantity</t>
+  </si>
+  <si>
+    <t>InjCrv_qMI1Des</t>
+  </si>
+  <si>
+    <t>desired MI1 injection quantity</t>
+  </si>
+  <si>
+    <t>InjCrv_phiMI1Des</t>
+  </si>
+  <si>
+    <t>Desired reference angle for the start of MI1</t>
+  </si>
+  <si>
+    <t>InjCrv_stShutOffPiIPoI</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>State of MI1 fuelMass too small</t>
+  </si>
+  <si>
+    <t>InjCrv_stShutOffPoI</t>
+  </si>
+  <si>
+    <t>InjCrv_qMI1Bas_mp</t>
+  </si>
+  <si>
+    <t>injection quantities for MI1</t>
+  </si>
+  <si>
+    <t>InjCrv_qMI1Set_mp</t>
+  </si>
+  <si>
+    <t>injection quantities for MI1 affer correcion</t>
+  </si>
+  <si>
+    <t>InjCrv_phiMI1MaxEOM0_mp</t>
+  </si>
+  <si>
+    <t>max start of energizing for MI1</t>
+  </si>
+  <si>
+    <t>InjCrv_phiMI1Bas_mp</t>
+  </si>
+  <si>
+    <t>Start of energizing for MI1</t>
+  </si>
+  <si>
+    <t>InjCrv_phiMI1StrtBase_mp</t>
+  </si>
+  <si>
+    <t>Start of energizing for MI1 when engine start</t>
+  </si>
+  <si>
+    <t>InjCrv_phiMI1Strt_mp</t>
+  </si>
+  <si>
+    <t>InjCrv_phiMI1CorOut_mp</t>
+  </si>
+  <si>
+    <t>Start of energizing for MI1 before saturation</t>
+  </si>
+  <si>
+    <t>InjCrv_phiMI1Max2EOM0_mp</t>
+  </si>
+  <si>
+    <t>InjCrv_phiMI1Max1EOM0_mp</t>
+  </si>
+  <si>
+    <t>InjCrv_phiMI1Lim_mp</t>
+  </si>
+  <si>
+    <t>InjCrv_phiMI1CorIn_mp</t>
+  </si>
+  <si>
+    <t>Start of energizing for MI1 after environment correction and intake air correction</t>
+  </si>
+  <si>
+    <t>InjCrv_phiMI1Bas1EOM0_mp</t>
+  </si>
+  <si>
+    <t>InjCrv_phiMI1Bas2EOM0_mp</t>
+  </si>
+  <si>
+    <t>SigTst_qMI1_C</t>
+  </si>
+  <si>
+    <t>signal test Replacement value</t>
+  </si>
+  <si>
+    <t>SigTst_swtMI1Q_C</t>
+  </si>
+  <si>
+    <t>signal test switch</t>
+  </si>
+  <si>
+    <t>[0 200 400 600 800 1000 1200 1400 1600 1800 2000 2200 2400 2800 3200 3600 4000 4400 4800 5200]</t>
+  </si>
+  <si>
+    <t>Base value for MI1 start of energizing with PiI1 X axis</t>
+  </si>
+  <si>
+    <t>[0 1 2 3 4 5 6 7 8 9 10 11 12 13 14 15 16 17 18 19]</t>
+  </si>
+  <si>
+    <t>Base value for MI1 start of energizing with PiI1 Y axis</t>
+  </si>
+  <si>
+    <t>[20 20]</t>
+  </si>
+  <si>
+    <t>[2 4 6 8 10 12 14 16 18 20 22 24 26 28 30 32 34 36 38 40;
+2 4 6 8 10 12 14 16 18 20 22 24 26 28 30 32 34 36 38 40;
+2 4 6 8 10 12 14 16 18 20 22 24 26 28 30 32 34 36 38 40;
+2 4 6 8 10 12 14 16 18 20 22 24 26 28 30 32 34 36 38 40;
+2 4 6 8 10 12 14 16 18 20 22 24 26 28 30 32 34 36 38 40;
+2 4 6 8 10 12 14 16 18 20 22 24 26 28 30 32 34 36 38 40;
+2 4 6 8 10 12 14 16 18 20 22 24 26 28 30 32 34 36 38 40;
+2 4 6 8 10 12 14 16 18 20 22 24 26 28 30 32 34 36 38 40;
+2 4 6 8 10 12 14 16 18 20 22 24 26 28 30 32 34 36 38 40;
+2 4 6 8 10 12 14 16 18 20 22 24 26 28 30 32 34 36 38 40;
+2 4 6 8 10 12 14 16 18 20 22 24 26 28 30 32 34 36 38 40;
+2 4 6 8 10 12 14 16 18 20 22 24 26 28 30 32 34 36 38 40;
+2 4 6 8 10 12 14 16 18 20 22 24 26 28 30 32 34 36 38 40;
+2 4 6 8 10 12 14 16 18 20 22 24 26 28 30 32 34 36 38 40;
+2 4 6 8 10 12 14 16 18 20 22 24 26 28 30 32 34 36 38 40;
+2 4 6 8 10 12 14 16 18 20 22 24 26 28 30 32 34 36 38 40;
+2 4 6 8 10 12 14 16 18 20 22 24 26 28 30 32 34 36 38 40;
+2 4 6 8 10 12 14 16 18 20 22 24 26 28 30 32 34 36 38 40;
+2 4 6 8 10 12 14 16 18 20 22 24 26 28 30 32 34 36 38 40;
+2 4 6 8 10 12 14 16 18 20 22 24 26 28 30 32 34 36 38 40]</t>
+  </si>
+  <si>
+    <t>Base value for MI1 start of energizing with PiI1</t>
+  </si>
+  <si>
+    <t>Base value for MI1 start of energizing with no pilot injections X axis</t>
+  </si>
+  <si>
+    <t>Base value for MI1 start of energizing with no pilot injections Y axis</t>
+  </si>
+  <si>
+    <t>[0 1 2 3 4 5 6 7 8 9 10 11 12 13 14 15 16 17 18 19;
+ 0 1 2 3 4 5 6 7 8 9 10 11 12 13 14 15 16 17 18 19;
+0 1 2 3 4 5 6 7 8 9 10 11 12 13 14 15 16 17 18 19;
+0 1 2 3 4 5 6 7 8 9 10 11 12 13 14 15 16 17 18 19;
+0 1 2 3 4 5 6 7 8 9 10 11 12 13 14 15 16 17 18 19;
+0 1 2 3 4 5 6 7 8 9 10 11 12 13 14 15 16 17 18 19;
+0 1 2 3 4 5 6 7 8 9 10 11 12 13 14 15 16 17 18 19;
+0 1 2 3 4 5 6 7 8 9 10 11 12 13 14 15 16 17 18 19;
+0 1 2 3 4 5 6 7 8 9 10 11 12 13 14 15 16 17 18 19;
+0 1 2 3 4 5 6 7 8 9 10 11 12 13 14 15 16 17 18 19;
+0 1 2 3 4 5 6 7 8 9 10 11 12 13 14 15 16 17 18 19;
+0 1 2 3 4 5 6 7 8 9 10 11 12 13 14 15 16 17 18 19;
+0 1 2 3 4 5 6 7 8 9 10 11 12 13 14 15 16 17 18 19;
+0 1 2 3 4 5 6 7 8 9 10 11 12 13 14 15 16 17 18 19;
+0 1 2 3 4 5 6 7 8 9 10 11 12 13 14 15 16 17 18 19;
+0 1 2 3 4 5 6 7 8 9 10 11 12 13 14 15 16 17 18 19;
+0 1 2 3 4 5 6 7 8 9 10 11 12 13 14 15 16 17 18 19;
+0 1 2 3 4 5 6 7 8 9 10 11 12 13 14 15 16 17 18 19;
+0 1 2 3 4 5 6 7 8 9 10 11 12 13 14 15 16 17 18 19;
+0 1 2 3 4 5 6 7 8 9 10 11 12 13 14 15 16 17 18 19]</t>
+  </si>
+  <si>
+    <t>Base value for MI1 start of energizing with no pilot injections</t>
+  </si>
+  <si>
+    <t>[800.0000000000000000 1000.0000000000000000 1200.0000000000000000 1400.0000000000000000 1600.0000000000000000 1800.0000000000000000 2000.0000000000000000 2200.0000000000000000 2400.0000000000000000 2600.0000000000000000 2800.0000000000000000 3000.0000000000000000 3200.0000000000000000 3400.0000000000000000 3600.0000000000000000 4000.0000000000000000]</t>
+  </si>
+  <si>
+    <t>[0 5 10 15 20 25 30 35 40 45 50 55 60 65 70]</t>
+  </si>
+  <si>
+    <t>[15 16]</t>
+  </si>
+  <si>
+    <t>[3.0981445312507563 3.7353515625009122 4.1308593750010081 4.6142578125011262 5.1196289062512497 5.8447265625014273 6.8334960937516680 7.9321289062519362 8.9208984375021778 9.6020507812523448 10.5249023437525700 11.4916992187528050 12.3046875000030040 12.9638671875031650 13.7548828125033570 14.5019531250035400;
+2.8344726562506919 3.4057617187508313 3.8012695312509281 4.2626953125010409 4.7460937500011591 5.4052734375013198 6.3500976562515508 7.4047851562518074 8.3496093750020393 9.0527343750022098 9.9316406250024247 10.8325195312526450 11.5576171875028210 12.2607421875029930 12.9199218750031550 13.6889648437533410;
+2.7685546875006759 3.3837890625008260 3.8452148437509388 4.3286132812510569 4.7680664062511644 5.3173828125012985 6.1962890625015126 7.1850585937517542 8.0859375000019735 8.7670898437521405 9.6020507812523448 10.4370117187525470 11.1181640625027140 11.8212890625028870 12.3266601562530090 13.0737304687531920;
+2.9223632812507137 3.4716796875008478 3.9990234375009761 4.4824218750010942 4.9438476562512070 5.4272460937513252 6.4160156250015667 7.3168945312517861 8.2397460937520108 8.9648437500021885 9.7558593750023821 10.5249023437525700 11.1621093750027250 11.8432617187528920 12.3706054687530200 13.0957031250031970;
+3.0322265625007403 3.6694335937508957 4.2626953125010409 4.7241210937511537 5.2294921875012763 5.7128906250013944 6.7236328125016414 7.6464843750018670 8.5913085937520979 9.3383789062522791 10.0854492187524620 10.7885742187526340 11.4697265625028000 12.1289062500029610 12.7221679687531070 13.4472656250032830;
+3.2299804687507887 3.9111328125009548 4.5043945312510996 5.0537109375012337 5.5590820312513571 6.1083984375014913 7.0532226562517222 8.0419921875019629 9.0087890625021991 9.8217773437523981 10.5468750000025760 11.2500000000027460 11.9091796875029080 12.6123046875030780 13.1396484375032080 13.9965820312534180;
+3.4936523437508531 4.2626953125010409 4.8339843750011804 5.4052734375013198 6.0424804687514753 6.6357421875016200 7.5366210937518403 8.4814453125020712 9.4702148437523128 10.3051757812525150 11.1181640625027140 11.8432617187528920 12.4584960937530410 13.0957031250031970 13.7329101562533520 14.6557617187535780;
+3.8452148437509388 4.5483398437511102 5.2075195312512710 5.8227539062514220 6.4819335937515827 7.1630859375017488 8.1298828125019842 9.0527343750022098 10.0634765625024570 10.9863281250026820 11.8872070312529030 12.6342773437530840 13.2495117187532350 13.8867187500033910 14.5239257812535460 15.3808593750037550;
+4.2407226562510356 4.9658203125012124 5.6909179687513891 6.3281250000015445 7.0532226562517222 7.8222656250019096 8.7451171875021352 9.6679687500023608 10.6787109375026080 11.7333984375028650 12.7661132812531180 13.4692382812532880 14.1284179687534500 14.7216796875035940 15.4028320312537610 16.2597656250039680;
+4.6142578125011262 5.4272460937513252 6.1523437500015019 6.9433593750016955 7.6684570312518723 8.5693359375020925 9.5141601562523235 10.4589843750025530 11.4257812500027890 12.4145507812530300 13.5571289062533090 14.3261718750034980 14.9853515625036590 15.6225585937538140 16.3476562500039900 17.2045898437541990;
+5.0537109375012337 5.9106445312514433 6.6796875000016307 7.5146484375018350 8.2617187500020162 9.2285156250022524 10.2832031250025100 11.2280273437527410 12.1728515625029720 13.0737304687531920 14.1943359375034660 15.0292968750036700 15.6665039062538240 16.2817382812539750 17.0507812500041640 18.0395507812544050;
+5.4492187500013305 6.3281250000015445 7.1191406250017382 7.9541015625019416 8.6791992187521192 9.7558593750023821 10.7885742187526340 11.7773437500028760 12.6342773437530840 13.5791015625033150 14.6557617187535780 15.3369140625037450 16.0839843750039260 16.6992187500040790 17.4462890625042600 18.5668945312545330;
+5.7128906250013944 6.6137695312516147 7.4707031250018243 8.2836914062520233 8.9868164062521938 10.0854492187524620 11.0961914062527090 12.0849609375029510 12.9858398437531710 13.7988281250033700 14.9414062500036490 15.6005859375038090 16.3256835937539860 17.0068359375041530 17.7539062500043340 18.7426757812545760;
+5.8666992187514326 6.7236328125016414 7.4926757812518296 8.4375000000020606 9.1845703125022418 10.2832031250025100 11.2719726562527520 12.2607421875029930 13.1616210937532130 13.9306640625034020 15.1171875000036910 15.7763671875038510 16.5454101562540390 17.1606445312541890 17.8637695312543630 18.9184570312546190;
+5.8227539062514220 6.6796875000016307 7.5366210937518403 8.4814453125020712 9.2504882812522577 10.2832031250025100 11.2939453125027570 12.4365234375030360 13.3154296875032510 14.1064453125034440 15.2270507812537180 15.9082031250038830 16.6113281250040570 17.1606445312541890 17.9077148437543730 18.8964843750046150]</t>
+  </si>
+  <si>
+    <t>[0 50 100 150 200 250 300 350 400 450 500 550 600 650 700 750]</t>
+  </si>
+  <si>
+    <t>Base value for MI1 start of energizing when engine start  X axis</t>
+  </si>
+  <si>
+    <t>[0 1 2 3 4 5 6 7 8 9 10 11 12 13 14 15]</t>
+  </si>
+  <si>
+    <t>Base value for MI1 start of energizing when engine start  Y axis</t>
+  </si>
+  <si>
+    <t>[16 16]</t>
+  </si>
+  <si>
+    <t>[0 1 3 4 5 6 7 8 9 10 11 12 13 14 15 16;
+ 0 1 3 4 5 6 7 8 9 10 11 12 13 14 15 16;
+0 1 3 4 5 6 7 8 9 10 11 12 13 14 15 16;
+0 1 3 4 5 6 7 8 9 10 11 12 13 14 15 16;
+0 1 3 4 5 6 7 8 9 10 11 12 13 14 15 16;
+0 1 3 4 5 6 7 8 9 10 11 12 13 14 15 16;
+0 1 3 4 5 6 7 8 9 10 11 12 13 14 15 16;
+0 1 3 4 5 6 7 8 9 10 11 12 13 14 15 16;
+0 1 3 4 5 6 7 8 9 10 11 12 13 14 15 16;
+0 1 3 4 5 6 7 8 9 10 11 12 13 14 15 16;
+0 1 3 4 5 6 7 8 9 10 11 12 13 14 15 16;
+0 1 3 4 5 6 7 8 9 10 11 12 13 14 15 16;
+0 1 3 4 5 6 7 8 9 10 11 12 13 14 15 16;
+0 1 3 4 5 6 7 8 9 10 11 12 13 14 15 16;
+0 1 3 4 5 6 7 8 9 10 11 12 13 14 15 16;
+0 1 3 4 5 6 7 8 9 10 11 12 13 14 15 16]</t>
+  </si>
+  <si>
+    <t>Base value for MI1 start of energizing when engine start</t>
+  </si>
+  <si>
+    <t>InjCrv_phiMI1Min_C</t>
+  </si>
+  <si>
+    <t>mininum value for MI1 angle</t>
+  </si>
+  <si>
+    <t>SigTst_phiMI1_C</t>
+  </si>
+  <si>
+    <t>SigTst_swtMI1Phi_C</t>
+  </si>
+  <si>
+    <t>InjCrv_qMI1Min_C</t>
+  </si>
+  <si>
+    <t>mininum value for MI1 quantity</t>
+  </si>
+  <si>
+    <t>InjCrv_qMI1MinPiIDiff_C</t>
+  </si>
+  <si>
+    <t>mininum value between MI1 and Pil quantity</t>
+  </si>
+  <si>
+    <t>InjCrv_qMI1MinPoIDiff_C</t>
+  </si>
+  <si>
+    <t>mininum value between MI1 and PoI quantity</t>
+  </si>
+  <si>
+    <t>InjCrv_stInjCharSetVal_C</t>
+  </si>
+  <si>
+    <t>Injection characteristic setpoint (speed synchronous) switch</t>
+  </si>
+  <si>
+    <t>InjMass</t>
+  </si>
+  <si>
+    <t>ERPM</t>
+  </si>
+  <si>
+    <t>Angle_CA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enum:EngState</t>
+  </si>
+  <si>
+    <t>Switch.OFF</t>
+  </si>
+  <si>
+    <t>Enum:Switch</t>
+  </si>
+  <si>
+    <t>State</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1 20]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1 16]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1 15]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InjCrv_phiMI1Max2EOM0_MAPX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InjCrv_phiMI1Max2EOM0_MAPY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InjCrv_phiMI1Max2EOM0_MAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InjCrv_phiMI1Max1EOM0_MAPX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InjCrv_phiMI1Max1EOM0_MAPY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InjCrv_phiMI1Max1EOM0_MAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InjCrv_phiMI1Bas1EOM0_MAPX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InjCrv_phiMI1Bas1EOM0_MAPY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InjCrv_phiMI1Bas1EOM0_MAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InjCrv_phiMI1Bas2EOM0_MAPX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InjCrv_phiMI1Bas2EOM0_MAPY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InjCrv_phiMI1Bas2EOM0_MAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InjCrv_phiMI1StrtBase_MAPX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InjCrv_phiMI1StrtBase_MAPY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InjCrv_phiMI1StrtBase_MAP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -501,6 +924,205 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5">
+        <v>-319</v>
+      </c>
+      <c r="C2" s="5">
+        <v>319</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="5">
+        <v>-319</v>
+      </c>
+      <c r="C3" s="5">
+        <v>319</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="5">
+        <v>-319</v>
+      </c>
+      <c r="C4" s="5">
+        <v>319</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>6000</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="5">
+        <v>-40</v>
+      </c>
+      <c r="C6" s="5">
+        <v>40</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="5">
+        <v>-10</v>
+      </c>
+      <c r="C7" s="5">
+        <v>40</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="5">
+        <v>-319</v>
+      </c>
+      <c r="C9" s="5">
+        <v>319</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -510,10 +1132,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -554,6 +1176,104 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="5">
+        <v>-319</v>
+      </c>
+      <c r="C2" s="5">
+        <v>319</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="5">
+        <v>-40</v>
+      </c>
+      <c r="C3" s="5">
+        <v>40</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -563,10 +1283,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -606,6 +1326,344 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="5">
+        <v>-319</v>
+      </c>
+      <c r="C2" s="5">
+        <v>319</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="5">
+        <v>-319</v>
+      </c>
+      <c r="C3" s="5">
+        <v>319</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="5">
+        <v>-40</v>
+      </c>
+      <c r="C4" s="5">
+        <v>40</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="5">
+        <v>-40</v>
+      </c>
+      <c r="C5" s="5">
+        <v>40</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="5">
+        <v>-40</v>
+      </c>
+      <c r="C6" s="5">
+        <v>40</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="5">
+        <v>-40</v>
+      </c>
+      <c r="C7" s="5">
+        <v>40</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="5">
+        <v>-40</v>
+      </c>
+      <c r="C8" s="5">
+        <v>40</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="5">
+        <v>-40</v>
+      </c>
+      <c r="C9" s="5">
+        <v>40</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="5">
+        <v>-40</v>
+      </c>
+      <c r="C10" s="5">
+        <v>40</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="5">
+        <v>-40</v>
+      </c>
+      <c r="C11" s="5">
+        <v>40</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="5">
+        <v>-40</v>
+      </c>
+      <c r="C12" s="5">
+        <v>40</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="5">
+        <v>-40</v>
+      </c>
+      <c r="C13" s="5">
+        <v>40</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="5">
+        <v>-40</v>
+      </c>
+      <c r="C14" s="5">
+        <v>40</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -616,8 +1674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -657,46 +1715,613 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="5">
+        <v>-300</v>
+      </c>
+      <c r="C2" s="5">
+        <v>319</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
     <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>6000</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="5">
+        <v>-300</v>
+      </c>
+      <c r="C5" s="5">
+        <v>319</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="5">
+        <v>-10</v>
+      </c>
+      <c r="C6" s="5">
+        <v>40</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>6000</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="5">
+        <v>-300</v>
+      </c>
+      <c r="C8" s="5">
+        <v>319</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="5">
+        <v>-10</v>
+      </c>
+      <c r="C9" s="5">
+        <v>40</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>6000</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" s="5">
+        <v>-300</v>
+      </c>
+      <c r="C11" s="5">
+        <v>319</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="5">
+        <v>-10</v>
+      </c>
+      <c r="C12" s="5">
+        <v>40</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0</v>
+      </c>
+      <c r="C13" s="5">
+        <v>6000</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="5">
+        <v>-300</v>
+      </c>
+      <c r="C14" s="5">
+        <v>319</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="5">
+        <v>-10</v>
+      </c>
+      <c r="C15" s="5">
+        <v>40</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E17" s="6"/>
-    </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E22" s="6"/>
-    </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E25" s="6"/>
-    </row>
-    <row r="29" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0</v>
+      </c>
+      <c r="C16" s="5">
+        <v>6000</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" s="5">
+        <v>-300</v>
+      </c>
+      <c r="C17" s="5">
+        <v>319</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" s="5">
+        <v>-10</v>
+      </c>
+      <c r="C18" s="5">
+        <v>40</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="5">
+        <v>-10</v>
+      </c>
+      <c r="C19" s="5">
+        <v>40</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="5">
+        <v>3</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="5">
+        <v>-10</v>
+      </c>
+      <c r="C20" s="5">
+        <v>40</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="5">
+        <v>-300</v>
+      </c>
+      <c r="C22" s="5">
+        <v>319</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="5">
+        <v>-300</v>
+      </c>
+      <c r="C23" s="5">
+        <v>319</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="5">
+        <v>-300</v>
+      </c>
+      <c r="C24" s="5">
+        <v>319</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="5">
+        <v>0</v>
+      </c>
+      <c r="C25" s="5">
+        <v>255</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E30" s="6"/>
     </row>
     <row r="34" spans="5:5" x14ac:dyDescent="0.3">
@@ -729,7 +2354,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
